--- a/biology/Botanique/Cattleya_dowiana/Cattleya_dowiana.xlsx
+++ b/biology/Botanique/Cattleya_dowiana/Cattleya_dowiana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cattleya dowiana ou Guaria de Turrialba, Guaria Reina est une espèce d'orchidées d'Amérique centrale et du Sud.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On trouve le C. dowiana sur la côte caraïbe du Costa Rica à la Colombie à des altitudes de 250 à 2 500 mètres. La variété aurea est originaire de Colombie.
 </t>
@@ -542,7 +556,9 @@
           <t>Floraison</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante produit de trois à sept fleurs de 12 cm à 18 cm avec une lèvre veinée veloutée de couleur écarlate sur un fond jaune. Les fleurs durent trois semaines et ont une douce odeur agréable.
 </t>
@@ -573,7 +589,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cattleya labiata var. dowiana (Bateman &amp; Rchb.f.) A.H.Kent ;
 Cattleya lawrenceana Warsc. (1883).</t>
@@ -604,7 +622,9 @@
           <t>Variétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Cattleya dowiana aurea. Très similaire au Cattleya aurea de Colombie à l'exception de l'emplacement géographique et des fleurs qui ont des veines moins complexes sur la lèvre ;
 Cattleya dowiana rosita.</t>
